--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
@@ -865,6 +865,308 @@
   </si>
   <si>
     <t>累计消除10个BAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_num|需要消除的数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,-1,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50,50,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,-1,25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,-1,50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,150,150,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,-1,75,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,180,180,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,-1,90,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,-1,100,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,13,13,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,250,250,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,-1,125,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,14,14,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,13,13,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,-1,150,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,14,14,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,13,13,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1296,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1356,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1360,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,9 +1685,10 @@
     <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1707,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1415,8 +1730,11 @@
       <c r="F2" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1435,8 +1753,11 @@
       <c r="F3" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1455,8 +1776,11 @@
       <c r="F4" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1475,8 +1799,11 @@
       <c r="F5" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1495,8 +1822,11 @@
       <c r="F6" s="13" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1515,8 +1845,11 @@
       <c r="F7" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1535,8 +1868,11 @@
       <c r="F8" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1555,8 +1891,11 @@
       <c r="F9" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1575,8 +1914,11 @@
       <c r="F10" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1595,8 +1937,11 @@
       <c r="F11" s="13" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1615,8 +1960,11 @@
       <c r="F12" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1635,8 +1983,11 @@
       <c r="F13" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1655,8 +2006,11 @@
       <c r="F14" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1675,8 +2029,11 @@
       <c r="F15" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1695,8 +2052,11 @@
       <c r="F16" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1715,8 +2075,11 @@
       <c r="F17" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1735,8 +2098,11 @@
       <c r="F18" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1755,8 +2121,11 @@
       <c r="F19" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1775,8 +2144,11 @@
       <c r="F20" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1795,8 +2167,11 @@
       <c r="F21" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1815,8 +2190,11 @@
       <c r="F22" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1835,8 +2213,11 @@
       <c r="F23" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1855,8 +2236,11 @@
       <c r="F24" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1875,8 +2259,11 @@
       <c r="F25" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1895,8 +2282,11 @@
       <c r="F26" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1915,8 +2305,11 @@
       <c r="F27" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1935,8 +2328,11 @@
       <c r="F28" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1955,8 +2351,11 @@
       <c r="F29" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1975,8 +2374,11 @@
       <c r="F30" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1995,8 +2397,11 @@
       <c r="F31" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2015,8 +2420,11 @@
       <c r="F32" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2035,8 +2443,11 @@
       <c r="F33" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2055,8 +2466,11 @@
       <c r="F34" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2075,8 +2489,11 @@
       <c r="F35" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2095,8 +2512,11 @@
       <c r="F36" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2115,8 +2535,11 @@
       <c r="F37" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2135,8 +2558,11 @@
       <c r="F38" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2155,8 +2581,11 @@
       <c r="F39" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2175,8 +2604,11 @@
       <c r="F40" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2195,8 +2627,11 @@
       <c r="F41" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2215,8 +2650,11 @@
       <c r="F42" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2235,8 +2673,11 @@
       <c r="F43" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2255,8 +2696,11 @@
       <c r="F44" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2275,8 +2719,11 @@
       <c r="F45" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2295,8 +2742,11 @@
       <c r="F46" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2315,8 +2765,11 @@
       <c r="F47" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2335,8 +2788,11 @@
       <c r="F48" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2355,8 +2811,11 @@
       <c r="F49" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2375,8 +2834,11 @@
       <c r="F50" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2395,8 +2857,11 @@
       <c r="F51" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2415,8 +2880,11 @@
       <c r="F52" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2435,8 +2903,11 @@
       <c r="F53" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2455,8 +2926,11 @@
       <c r="F54" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2475,8 +2949,11 @@
       <c r="F55" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2495,8 +2972,11 @@
       <c r="F56" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2515,8 +2995,11 @@
       <c r="F57" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2535,8 +3018,11 @@
       <c r="F58" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2555,8 +3041,11 @@
       <c r="F59" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2575,8 +3064,11 @@
       <c r="F60" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2595,8 +3087,11 @@
       <c r="F61" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2615,8 +3110,11 @@
       <c r="F62" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2635,8 +3133,11 @@
       <c r="F63" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2655,8 +3156,11 @@
       <c r="F64" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2675,8 +3179,11 @@
       <c r="F65" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2695,8 +3202,11 @@
       <c r="F66" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2715,8 +3225,11 @@
       <c r="F67" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2735,8 +3248,11 @@
       <c r="F68" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2755,8 +3271,11 @@
       <c r="F69" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2776,7 +3295,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2795,8 +3314,11 @@
       <c r="F71" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2815,8 +3337,11 @@
       <c r="F72" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2835,8 +3360,11 @@
       <c r="F73" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2855,8 +3383,11 @@
       <c r="F74" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2875,8 +3406,11 @@
       <c r="F75" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2895,8 +3429,11 @@
       <c r="F76" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2915,8 +3452,11 @@
       <c r="F77" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2935,8 +3475,11 @@
       <c r="F78" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2955,8 +3498,11 @@
       <c r="F79" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2975,8 +3521,11 @@
       <c r="F80" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2995,8 +3544,11 @@
       <c r="F81" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3015,8 +3567,11 @@
       <c r="F82" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3035,8 +3590,11 @@
       <c r="F83" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3055,8 +3613,11 @@
       <c r="F84" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3075,8 +3636,11 @@
       <c r="F85" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3095,8 +3659,11 @@
       <c r="F86" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3115,8 +3682,11 @@
       <c r="F87" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3135,8 +3705,11 @@
       <c r="F88" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3155,8 +3728,11 @@
       <c r="F89" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3175,8 +3751,11 @@
       <c r="F90" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3196,7 +3775,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3215,8 +3794,11 @@
       <c r="F92" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3235,8 +3817,11 @@
       <c r="F93" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3255,8 +3840,11 @@
       <c r="F94" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3275,8 +3863,11 @@
       <c r="F95" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3295,8 +3886,11 @@
       <c r="F96" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3315,8 +3909,11 @@
       <c r="F97" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3335,8 +3932,11 @@
       <c r="F98" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3355,8 +3955,11 @@
       <c r="F99" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G99" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3375,8 +3978,11 @@
       <c r="F100" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G100" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3395,8 +4001,11 @@
       <c r="F101" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G101" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3415,8 +4024,11 @@
       <c r="F102" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G102" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3435,8 +4047,11 @@
       <c r="F103" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G103" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3455,8 +4070,11 @@
       <c r="F104" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G104" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3475,8 +4093,11 @@
       <c r="F105" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G105" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3495,8 +4116,11 @@
       <c r="F106" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G106" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3515,8 +4139,11 @@
       <c r="F107" s="12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G107" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3535,8 +4162,11 @@
       <c r="F108" s="12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G108" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3555,8 +4185,11 @@
       <c r="F109" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G109" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3575,8 +4208,11 @@
       <c r="F110" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G110" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3595,8 +4231,11 @@
       <c r="F111" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G111" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3616,7 +4255,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3635,8 +4274,11 @@
       <c r="F113" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G113" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3655,8 +4297,11 @@
       <c r="F114" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G114" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3675,8 +4320,11 @@
       <c r="F115" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G115" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3695,8 +4343,11 @@
       <c r="F116" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G116" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3715,8 +4366,11 @@
       <c r="F117" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G117" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3735,8 +4389,11 @@
       <c r="F118" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G118" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3755,8 +4412,11 @@
       <c r="F119" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G119" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3775,8 +4435,11 @@
       <c r="F120" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G120" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3795,8 +4458,11 @@
       <c r="F121" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G121" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3815,8 +4481,11 @@
       <c r="F122" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G122" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3835,8 +4504,11 @@
       <c r="F123" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G123" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3855,8 +4527,11 @@
       <c r="F124" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G124" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3875,8 +4550,11 @@
       <c r="F125" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G125" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3895,8 +4573,11 @@
       <c r="F126" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G126" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3915,8 +4596,11 @@
       <c r="F127" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G127" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3935,8 +4619,11 @@
       <c r="F128" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G128" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3955,8 +4642,11 @@
       <c r="F129" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G129" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3975,8 +4665,11 @@
       <c r="F130" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G130" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3995,8 +4688,11 @@
       <c r="F131" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G131" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4015,8 +4711,11 @@
       <c r="F132" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G132" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4036,7 +4735,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4055,8 +4754,11 @@
       <c r="F134" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G134" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4075,8 +4777,11 @@
       <c r="F135" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G135" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4095,8 +4800,11 @@
       <c r="F136" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G136" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4115,8 +4823,11 @@
       <c r="F137" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G137" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4135,8 +4846,11 @@
       <c r="F138" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G138" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4155,8 +4869,11 @@
       <c r="F139" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G139" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4175,8 +4892,11 @@
       <c r="F140" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G140" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4195,8 +4915,11 @@
       <c r="F141" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G141" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4215,8 +4938,11 @@
       <c r="F142" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G142" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4235,8 +4961,11 @@
       <c r="F143" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G143" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4255,8 +4984,11 @@
       <c r="F144" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G144" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4275,8 +5007,11 @@
       <c r="F145" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G145" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4295,8 +5030,11 @@
       <c r="F146" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G146" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4315,8 +5053,11 @@
       <c r="F147" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G147" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4335,8 +5076,11 @@
       <c r="F148" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G148" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4355,8 +5099,11 @@
       <c r="F149" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G149" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4375,8 +5122,11 @@
       <c r="F150" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G150" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4395,8 +5145,11 @@
       <c r="F151" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G151" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4415,8 +5168,11 @@
       <c r="F152" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G152" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4435,8 +5191,11 @@
       <c r="F153" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G153" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4456,7 +5215,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4475,8 +5234,11 @@
       <c r="F155" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G155" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4495,8 +5257,11 @@
       <c r="F156" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G156" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4515,8 +5280,11 @@
       <c r="F157" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G157" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4535,8 +5303,11 @@
       <c r="F158" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G158" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4555,8 +5326,11 @@
       <c r="F159" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G159" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4575,8 +5349,11 @@
       <c r="F160" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G160" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4595,8 +5372,11 @@
       <c r="F161" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G161" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4615,8 +5395,11 @@
       <c r="F162" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G162" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4635,8 +5418,11 @@
       <c r="F163" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G163" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4655,8 +5441,11 @@
       <c r="F164" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G164" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4675,8 +5464,11 @@
       <c r="F165" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G165" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4695,8 +5487,11 @@
       <c r="F166" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G166" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4715,8 +5510,11 @@
       <c r="F167" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G167" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4735,8 +5533,11 @@
       <c r="F168" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G168" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4755,8 +5556,11 @@
       <c r="F169" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G169" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4775,8 +5579,11 @@
       <c r="F170" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G170" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4795,8 +5602,11 @@
       <c r="F171" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G171" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4815,8 +5625,11 @@
       <c r="F172" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G172" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4835,8 +5648,11 @@
       <c r="F173" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G173" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4855,8 +5671,11 @@
       <c r="F174" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G174" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="283">
   <si>
     <t>line|行号</t>
   </si>
@@ -1167,6 +1167,39 @@
   </si>
   <si>
     <t>13,13,13,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xxl_icon_a","xxl_icon_a","xxl_icon_a",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1,-1,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1296,7 +1329,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1397,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1674,7 +1710,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3283,7 +3319,7 @@
         <v>16568</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>68</v>
@@ -3293,6 +3329,9 @@
       </c>
       <c r="F70" s="12" t="s">
         <v>191</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -3774,6 +3813,9 @@
       <c r="F91" s="12" t="s">
         <v>193</v>
       </c>
+      <c r="G91" s="23" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
@@ -4254,6 +4296,9 @@
       <c r="F112" s="12" t="s">
         <v>197</v>
       </c>
+      <c r="G112" s="23" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113">
@@ -4734,6 +4779,9 @@
       <c r="F133" s="12" t="s">
         <v>201</v>
       </c>
+      <c r="G133" s="23" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134">
@@ -5214,6 +5262,9 @@
       <c r="F154" s="12" t="s">
         <v>204</v>
       </c>
+      <c r="G154" s="22" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155">
@@ -5693,6 +5744,9 @@
       </c>
       <c r="F175" s="12" t="s">
         <v>180</v>
+      </c>
+      <c r="G175" s="22" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="282">
   <si>
     <t>line|行号</t>
   </si>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>"xxl_icon_e","xxl_icon_+","xxl_icon_f",</t>
-  </si>
-  <si>
-    <t>"xxl_icon_a","xxl_icon_a","xxl_icon_a",</t>
   </si>
   <si>
     <t>累计消除10个苹果</t>
@@ -1170,10 +1167,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"xxl_icon_a","xxl_icon_a","xxl_icon_a",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>-1,</t>
     </r>
@@ -1201,6 +1194,9 @@
   <si>
     <t>3,3,3,</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xxl_icon_g","xxl_icon_g","xxl_icon_g",</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1706,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1744,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1758,7 +1754,7 @@
         <v>209</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>170</v>
@@ -1767,7 +1763,7 @@
         <v>179</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1781,7 +1777,7 @@
         <v>212</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>170</v>
@@ -1790,7 +1786,7 @@
         <v>179</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1804,7 +1800,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>169</v>
@@ -1813,7 +1809,7 @@
         <v>179</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1827,7 +1823,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>169</v>
@@ -1836,7 +1832,7 @@
         <v>179</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1850,7 +1846,7 @@
         <v>219</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>169</v>
@@ -1859,7 +1855,7 @@
         <v>181</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1882,7 +1878,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1905,7 +1901,7 @@
         <v>179</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1928,7 +1924,7 @@
         <v>182</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1951,7 +1947,7 @@
         <v>182</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1974,7 +1970,7 @@
         <v>181</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1997,7 +1993,7 @@
         <v>184</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2020,7 +2016,7 @@
         <v>184</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2043,7 +2039,7 @@
         <v>184</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2066,7 +2062,7 @@
         <v>183</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2089,7 +2085,7 @@
         <v>183</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2112,7 +2108,7 @@
         <v>183</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2135,7 +2131,7 @@
         <v>183</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2158,7 +2154,7 @@
         <v>183</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -2181,7 +2177,7 @@
         <v>183</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -2204,7 +2200,7 @@
         <v>183</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2227,7 +2223,7 @@
         <v>183</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2250,7 +2246,7 @@
         <v>183</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -2273,7 +2269,7 @@
         <v>183</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -2296,7 +2292,7 @@
         <v>183</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -2319,7 +2315,7 @@
         <v>183</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -2342,7 +2338,7 @@
         <v>185</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -2365,7 +2361,7 @@
         <v>185</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2388,7 +2384,7 @@
         <v>185</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -2411,7 +2407,7 @@
         <v>185</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -2434,7 +2430,7 @@
         <v>187</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -2457,7 +2453,7 @@
         <v>187</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2480,7 +2476,7 @@
         <v>186</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2503,7 +2499,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2526,7 +2522,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2549,7 +2545,7 @@
         <v>186</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2572,7 +2568,7 @@
         <v>186</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2595,7 +2591,7 @@
         <v>186</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2618,7 +2614,7 @@
         <v>186</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2641,7 +2637,7 @@
         <v>186</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2664,7 +2660,7 @@
         <v>186</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2687,7 +2683,7 @@
         <v>186</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2710,7 +2706,7 @@
         <v>186</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2733,7 +2729,7 @@
         <v>186</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2756,7 +2752,7 @@
         <v>186</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2779,7 +2775,7 @@
         <v>188</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2802,7 +2798,7 @@
         <v>188</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2825,7 +2821,7 @@
         <v>188</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2848,7 +2844,7 @@
         <v>188</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2871,7 +2867,7 @@
         <v>190</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2894,7 +2890,7 @@
         <v>190</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2917,7 +2913,7 @@
         <v>189</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2940,7 +2936,7 @@
         <v>189</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2963,7 +2959,7 @@
         <v>189</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2986,7 +2982,7 @@
         <v>189</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -3009,7 +3005,7 @@
         <v>189</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -3032,7 +3028,7 @@
         <v>189</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -3055,7 +3051,7 @@
         <v>189</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -3078,7 +3074,7 @@
         <v>189</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -3101,7 +3097,7 @@
         <v>189</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -3124,7 +3120,7 @@
         <v>189</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -3147,7 +3143,7 @@
         <v>189</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -3170,7 +3166,7 @@
         <v>189</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -3193,7 +3189,7 @@
         <v>189</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -3216,7 +3212,7 @@
         <v>192</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -3239,7 +3235,7 @@
         <v>192</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -3262,7 +3258,7 @@
         <v>191</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -3285,7 +3281,7 @@
         <v>191</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -3308,7 +3304,7 @@
         <v>191</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -3319,7 +3315,7 @@
         <v>16568</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>68</v>
@@ -3331,7 +3327,7 @@
         <v>191</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -3354,7 +3350,7 @@
         <v>191</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -3377,7 +3373,7 @@
         <v>191</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -3400,7 +3396,7 @@
         <v>191</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -3423,7 +3419,7 @@
         <v>191</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -3446,7 +3442,7 @@
         <v>191</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -3469,7 +3465,7 @@
         <v>191</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -3492,7 +3488,7 @@
         <v>191</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -3515,7 +3511,7 @@
         <v>191</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -3538,7 +3534,7 @@
         <v>191</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -3561,7 +3557,7 @@
         <v>191</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -3584,7 +3580,7 @@
         <v>191</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -3607,7 +3603,7 @@
         <v>191</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -3630,7 +3626,7 @@
         <v>191</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -3653,7 +3649,7 @@
         <v>191</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -3676,7 +3672,7 @@
         <v>191</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -3699,7 +3695,7 @@
         <v>194</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -3722,7 +3718,7 @@
         <v>194</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -3745,7 +3741,7 @@
         <v>193</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -3768,7 +3764,7 @@
         <v>193</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -3791,7 +3787,7 @@
         <v>193</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -3802,7 +3798,7 @@
         <v>16589</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>89</v>
@@ -3814,7 +3810,7 @@
         <v>193</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -3837,7 +3833,7 @@
         <v>196</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -3860,7 +3856,7 @@
         <v>196</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -3883,7 +3879,7 @@
         <v>195</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -3906,7 +3902,7 @@
         <v>195</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -3929,7 +3925,7 @@
         <v>195</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -3952,7 +3948,7 @@
         <v>195</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -3975,7 +3971,7 @@
         <v>195</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -3998,7 +3994,7 @@
         <v>195</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -4021,7 +4017,7 @@
         <v>195</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -4044,7 +4040,7 @@
         <v>195</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -4067,7 +4063,7 @@
         <v>195</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -4090,7 +4086,7 @@
         <v>195</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -4113,7 +4109,7 @@
         <v>195</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -4136,7 +4132,7 @@
         <v>195</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -4159,7 +4155,7 @@
         <v>195</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -4182,7 +4178,7 @@
         <v>198</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -4205,7 +4201,7 @@
         <v>198</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -4228,7 +4224,7 @@
         <v>197</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -4251,7 +4247,7 @@
         <v>197</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -4274,7 +4270,7 @@
         <v>197</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -4285,7 +4281,7 @@
         <v>16610</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>89</v>
@@ -4297,7 +4293,7 @@
         <v>197</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -4320,7 +4316,7 @@
         <v>200</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -4343,7 +4339,7 @@
         <v>200</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -4366,7 +4362,7 @@
         <v>199</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -4389,7 +4385,7 @@
         <v>199</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -4412,7 +4408,7 @@
         <v>199</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -4435,7 +4431,7 @@
         <v>199</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -4458,7 +4454,7 @@
         <v>199</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -4481,7 +4477,7 @@
         <v>199</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -4504,7 +4500,7 @@
         <v>199</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -4527,7 +4523,7 @@
         <v>199</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -4550,7 +4546,7 @@
         <v>199</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -4573,7 +4569,7 @@
         <v>199</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -4596,7 +4592,7 @@
         <v>199</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -4619,7 +4615,7 @@
         <v>199</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4642,7 +4638,7 @@
         <v>199</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -4665,7 +4661,7 @@
         <v>202</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -4688,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -4711,7 +4707,7 @@
         <v>201</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -4734,7 +4730,7 @@
         <v>201</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -4757,7 +4753,7 @@
         <v>201</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -4768,7 +4764,7 @@
         <v>16631</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>89</v>
@@ -4780,7 +4776,7 @@
         <v>201</v>
       </c>
       <c r="G133" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -4803,7 +4799,7 @@
         <v>203</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -4826,7 +4822,7 @@
         <v>203</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -4849,7 +4845,7 @@
         <v>197</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -4872,7 +4868,7 @@
         <v>197</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -4895,7 +4891,7 @@
         <v>197</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4918,7 +4914,7 @@
         <v>197</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -4941,7 +4937,7 @@
         <v>197</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -4964,7 +4960,7 @@
         <v>197</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -4987,7 +4983,7 @@
         <v>197</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -5010,7 +5006,7 @@
         <v>197</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -5033,7 +5029,7 @@
         <v>197</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -5056,7 +5052,7 @@
         <v>197</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -5079,7 +5075,7 @@
         <v>197</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -5102,7 +5098,7 @@
         <v>197</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -5125,7 +5121,7 @@
         <v>197</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -5148,7 +5144,7 @@
         <v>205</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -5171,7 +5167,7 @@
         <v>205</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -5194,7 +5190,7 @@
         <v>204</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -5217,7 +5213,7 @@
         <v>204</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -5240,7 +5236,7 @@
         <v>204</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -5251,7 +5247,7 @@
         <v>16652</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>149</v>
@@ -5263,7 +5259,7 @@
         <v>204</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -5286,7 +5282,7 @@
         <v>207</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -5309,7 +5305,7 @@
         <v>207</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -5332,7 +5328,7 @@
         <v>206</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -5355,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -5378,7 +5374,7 @@
         <v>206</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -5401,7 +5397,7 @@
         <v>206</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -5424,7 +5420,7 @@
         <v>206</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -5447,7 +5443,7 @@
         <v>206</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -5470,7 +5466,7 @@
         <v>206</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -5493,7 +5489,7 @@
         <v>206</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -5516,7 +5512,7 @@
         <v>206</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -5539,7 +5535,7 @@
         <v>206</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -5562,7 +5558,7 @@
         <v>206</v>
       </c>
       <c r="G167" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -5585,7 +5581,7 @@
         <v>206</v>
       </c>
       <c r="G168" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -5608,7 +5604,7 @@
         <v>206</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -5631,7 +5627,7 @@
         <v>208</v>
       </c>
       <c r="G170" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -5654,7 +5650,7 @@
         <v>208</v>
       </c>
       <c r="G171" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
@@ -5677,7 +5673,7 @@
         <v>180</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -5700,7 +5696,7 @@
         <v>180</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -5723,7 +5719,7 @@
         <v>180</v>
       </c>
       <c r="G174" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -5734,7 +5730,7 @@
         <v>16673</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>149</v>
@@ -5746,7 +5742,7 @@
         <v>180</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="376">
   <si>
     <t>line|行号</t>
   </si>
@@ -1273,6 +1273,10 @@
   </si>
   <si>
     <t>单局消除9个及以上西瓜</t>
+  </si>
+  <si>
+    <t>bet_limit|档次限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1779,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1791,13 +1795,14 @@
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="43.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,19 +1816,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1836,23 +1844,26 @@
       <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1865,23 +1876,26 @@
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1894,23 +1908,26 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1923,23 +1940,26 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1952,23 +1972,26 @@
       <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1981,23 +2004,26 @@
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2010,23 +2036,26 @@
       <c r="D8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2039,23 +2068,26 @@
       <c r="D9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2068,23 +2100,26 @@
       <c r="D10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2097,23 +2132,26 @@
       <c r="D11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2126,23 +2164,26 @@
       <c r="D12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2155,23 +2196,26 @@
       <c r="D13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2184,23 +2228,26 @@
       <c r="D14" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2213,23 +2260,26 @@
       <c r="D15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2242,23 +2292,26 @@
       <c r="D16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2271,23 +2324,26 @@
       <c r="D17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2300,23 +2356,26 @@
       <c r="D18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2329,23 +2388,26 @@
       <c r="D19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2358,23 +2420,26 @@
       <c r="D20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2387,23 +2452,26 @@
       <c r="D21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2416,23 +2484,26 @@
       <c r="D22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2445,23 +2516,26 @@
       <c r="D23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2474,23 +2548,26 @@
       <c r="D24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2503,23 +2580,26 @@
       <c r="D25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2532,23 +2612,26 @@
       <c r="D26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2561,23 +2644,26 @@
       <c r="D27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="I27" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -2590,23 +2676,26 @@
       <c r="D28" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="G28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="H28" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="20">
+      <c r="J28" s="20">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -2619,23 +2708,26 @@
       <c r="D29" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="I29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="20">
+      <c r="J29" s="20">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2648,23 +2740,26 @@
       <c r="D30" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2677,23 +2772,26 @@
       <c r="D31" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2706,23 +2804,26 @@
       <c r="D32" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I32" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2735,23 +2836,26 @@
       <c r="D33" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2764,23 +2868,26 @@
       <c r="D34" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2793,23 +2900,26 @@
       <c r="D35" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="I35" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2822,23 +2932,26 @@
       <c r="D36" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -2851,23 +2964,26 @@
       <c r="D37" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="I37" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2880,23 +2996,26 @@
       <c r="D38" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="I38" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -2909,23 +3028,26 @@
       <c r="D39" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="I39" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -2938,23 +3060,26 @@
       <c r="D40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="G40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="H40" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="I40" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I40" s="20">
+      <c r="J40" s="20">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -2967,23 +3092,26 @@
       <c r="D41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="11">
+        <v>60000</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="H41" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="I41" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="20">
+      <c r="J41" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2996,23 +3124,26 @@
       <c r="D42" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3025,23 +3156,26 @@
       <c r="D43" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3054,23 +3188,26 @@
       <c r="D44" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3083,23 +3220,26 @@
       <c r="D45" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="I45" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3112,23 +3252,26 @@
       <c r="D46" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3141,23 +3284,26 @@
       <c r="D47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="I47" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3170,23 +3316,26 @@
       <c r="D48" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3199,23 +3348,26 @@
       <c r="D49" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3228,23 +3380,26 @@
       <c r="D50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3257,23 +3412,26 @@
       <c r="D51" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="I51" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -3286,23 +3444,26 @@
       <c r="D52" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="G52" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="H52" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="I52" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="20">
+      <c r="J52" s="20">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -3315,23 +3476,26 @@
       <c r="D53" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="11">
+        <v>120000</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="H53" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="I53" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="20">
+      <c r="J53" s="20">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -3344,23 +3508,26 @@
       <c r="D54" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="H54" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="I54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -3373,23 +3540,26 @@
       <c r="D55" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="I55" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -3402,23 +3572,26 @@
       <c r="D56" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="H56" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="I56" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -3431,23 +3604,26 @@
       <c r="D57" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3460,23 +3636,26 @@
       <c r="D58" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="H58" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -3489,23 +3668,26 @@
       <c r="D59" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="H59" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="I59" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3518,23 +3700,26 @@
       <c r="D60" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="H60" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="I60" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -3547,23 +3732,26 @@
       <c r="D61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="H61" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="I61" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I61" s="4">
+      <c r="J61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3576,23 +3764,26 @@
       <c r="D62" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="H62" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="I62" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -3605,23 +3796,26 @@
       <c r="D63" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="H63" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="I63" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3634,23 +3828,26 @@
       <c r="D64" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="H64" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="I64" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -3663,23 +3860,26 @@
       <c r="D65" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="H65" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="I65" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="4">
+      <c r="J65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -3692,23 +3892,26 @@
       <c r="D66" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="11">
+        <v>240000</v>
+      </c>
+      <c r="F66" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="G66" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="H66" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="I66" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="20">
+      <c r="J66" s="20">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3721,23 +3924,26 @@
       <c r="D67" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="H67" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="I67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="4">
+      <c r="J67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3750,23 +3956,26 @@
       <c r="D68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="I68" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3779,23 +3988,26 @@
       <c r="D69" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="H69" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="I69" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I69" s="4">
+      <c r="J69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3808,23 +4020,26 @@
       <c r="D70" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="H70" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I70" s="4">
+      <c r="J70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3837,23 +4052,26 @@
       <c r="D71" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="H71" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I71" s="4">
+      <c r="J71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3866,23 +4084,26 @@
       <c r="D72" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="H72" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="I72" s="4">
+      <c r="J72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3895,23 +4116,26 @@
       <c r="D73" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="H73" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="I73" s="4">
+      <c r="J73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3924,23 +4148,26 @@
       <c r="D74" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="H74" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3953,23 +4180,26 @@
       <c r="D75" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="H75" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="I75" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I75" s="4">
+      <c r="J75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3982,23 +4212,26 @@
       <c r="D76" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="H76" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="I76" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4011,23 +4244,26 @@
       <c r="D77" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="H77" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="I77" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I77" s="4">
+      <c r="J77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4040,23 +4276,26 @@
       <c r="D78" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="H78" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="I78" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -4069,23 +4308,26 @@
       <c r="D79" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="11">
+        <v>480000</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="H79" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="H79" s="27" t="s">
+      <c r="I79" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I79" s="20">
+      <c r="J79" s="20">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -4098,23 +4340,26 @@
       <c r="D80" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="G80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="H80" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="I80" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -4127,23 +4372,26 @@
       <c r="D81" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="H81" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="I81" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I81" s="4">
+      <c r="J81" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -4156,23 +4404,26 @@
       <c r="D82" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="G82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="H82" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="I82" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="4">
+      <c r="J82" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -4185,23 +4436,26 @@
       <c r="D83" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="H83" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="I83" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I83" s="4">
+      <c r="J83" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -4214,23 +4468,26 @@
       <c r="D84" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="H84" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="I84" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I84" s="4">
+      <c r="J84" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -4243,23 +4500,26 @@
       <c r="D85" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="H85" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="I85" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I85" s="4">
+      <c r="J85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -4272,23 +4532,26 @@
       <c r="D86" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="H86" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="I86" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I86" s="4">
+      <c r="J86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -4301,23 +4564,26 @@
       <c r="D87" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="H87" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="I87" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I87" s="4">
+      <c r="J87" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -4330,23 +4596,26 @@
       <c r="D88" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="H88" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="I88" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I88" s="4">
+      <c r="J88" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -4359,23 +4628,26 @@
       <c r="D89" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="H89" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="I89" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I89" s="4">
+      <c r="J89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -4388,23 +4660,26 @@
       <c r="D90" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="H90" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H90" s="12" t="s">
+      <c r="I90" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I90" s="4">
+      <c r="J90" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -4417,23 +4692,26 @@
       <c r="D91" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="H91" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="I91" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I91" s="4">
+      <c r="J91" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -4446,23 +4724,26 @@
       <c r="D92" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="11">
+        <v>960000</v>
+      </c>
+      <c r="F92" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="H92" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="I92" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="4">
+      <c r="J92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -4475,23 +4756,26 @@
       <c r="D93" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="G93" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="H93" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I93" s="4">
+      <c r="J93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -4504,23 +4788,26 @@
       <c r="D94" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="G94" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="H94" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="I94" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I94" s="4">
+      <c r="J94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
@@ -4533,23 +4820,26 @@
       <c r="D95" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="G95" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="H95" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="I95" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I95" s="4">
+      <c r="J95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -4562,23 +4852,26 @@
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="H96" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="I96" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I96" s="4">
+      <c r="J96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -4591,23 +4884,26 @@
       <c r="D97" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="G97" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="H97" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="I97" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I97" s="4">
+      <c r="J97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -4620,23 +4916,26 @@
       <c r="D98" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="G98" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="H98" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="I98" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I98" s="4">
+      <c r="J98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -4649,23 +4948,26 @@
       <c r="D99" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="G99" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="H99" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="I99" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I99" s="4">
+      <c r="J99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -4678,23 +4980,26 @@
       <c r="D100" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="G100" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="H100" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="I100" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I100" s="4">
+      <c r="J100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -4707,23 +5012,26 @@
       <c r="D101" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="H101" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="I101" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I101" s="4">
+      <c r="J101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -4736,23 +5044,26 @@
       <c r="D102" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="G102" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="H102" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I102" s="4">
+      <c r="J102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -4765,23 +5076,26 @@
       <c r="D103" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F103" s="18" t="s">
+      <c r="G103" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="H103" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="I103" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I103" s="4">
+      <c r="J103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -4794,23 +5108,26 @@
       <c r="D104" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="G104" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="H104" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="I104" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I104" s="4">
+      <c r="J104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -4823,23 +5140,26 @@
       <c r="D105" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="11">
+        <v>1920000</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="G105" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="H105" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="I105" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I105" s="4">
+      <c r="J105" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -4852,23 +5172,26 @@
       <c r="D106" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="G106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="H106" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H106" s="12" t="s">
+      <c r="I106" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I106" s="4">
+      <c r="J106" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -4881,23 +5204,26 @@
       <c r="D107" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="G107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="H107" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H107" s="12" t="s">
+      <c r="I107" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I107" s="4">
+      <c r="J107" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -4910,23 +5236,26 @@
       <c r="D108" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F108" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="G108" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="H108" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="I108" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I108" s="4">
+      <c r="J108" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -4939,23 +5268,26 @@
       <c r="D109" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="G109" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="H109" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="I109" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I109" s="4">
+      <c r="J109" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -4968,23 +5300,26 @@
       <c r="D110" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="H110" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="I110" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I110" s="4">
+      <c r="J110" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -4997,23 +5332,26 @@
       <c r="D111" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="H111" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H111" s="12" t="s">
+      <c r="I111" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="I111" s="4">
+      <c r="J111" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -5026,23 +5364,26 @@
       <c r="D112" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F112" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="H112" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="I112" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="I112" s="4">
+      <c r="J112" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -5055,23 +5396,26 @@
       <c r="D113" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="G113" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="H113" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H113" s="12" t="s">
+      <c r="I113" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I113" s="4">
+      <c r="J113" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5084,23 +5428,26 @@
       <c r="D114" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="10" t="s">
+      <c r="G114" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="H114" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H114" s="12" t="s">
+      <c r="I114" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I114" s="4">
+      <c r="J114" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -5113,23 +5460,26 @@
       <c r="D115" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F115" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="G115" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="H115" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="I115" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="I115" s="4">
+      <c r="J115" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -5142,23 +5492,26 @@
       <c r="D116" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F116" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F116" s="10" t="s">
+      <c r="G116" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="H116" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="I116" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I116" s="4">
+      <c r="J116" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -5171,23 +5524,26 @@
       <c r="D117" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F117" s="10" t="s">
+      <c r="G117" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="H117" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="I117" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I117" s="4">
+      <c r="J117" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -5200,23 +5556,26 @@
       <c r="D118" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="11">
+        <v>5120000</v>
+      </c>
+      <c r="F118" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="G118" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G118" s="13" t="s">
+      <c r="H118" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="I118" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="4">
+      <c r="J118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5229,23 +5588,26 @@
       <c r="D119" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="G119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="H119" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="I119" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I119" s="4">
+      <c r="J119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5258,23 +5620,26 @@
       <c r="D120" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="H120" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="I120" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I120" s="4">
+      <c r="J120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5287,23 +5652,26 @@
       <c r="D121" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="G121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="H121" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="I121" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I121" s="4">
+      <c r="J121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -5316,23 +5684,26 @@
       <c r="D122" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F122" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="G122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="H122" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="I122" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I122" s="4">
+      <c r="J122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5345,23 +5716,26 @@
       <c r="D123" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="H123" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="I123" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I123" s="4">
+      <c r="J123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -5374,23 +5748,26 @@
       <c r="D124" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="H124" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H124" s="16" t="s">
+      <c r="I124" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="I124" s="4">
+      <c r="J124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5403,23 +5780,26 @@
       <c r="D125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="G125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="H125" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="I125" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="I125" s="4">
+      <c r="J125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -5432,23 +5812,26 @@
       <c r="D126" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="H126" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H126" s="16" t="s">
+      <c r="I126" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I126" s="4">
+      <c r="J126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5461,23 +5844,26 @@
       <c r="D127" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="H127" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H127" s="16" t="s">
+      <c r="I127" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I127" s="4">
+      <c r="J127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -5490,23 +5876,26 @@
       <c r="D128" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="H128" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H128" s="16" t="s">
+      <c r="I128" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="I128" s="4">
+      <c r="J128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5519,23 +5908,26 @@
       <c r="D129" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="H129" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H129" s="16" t="s">
+      <c r="I129" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I129" s="4">
+      <c r="J129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -5548,23 +5940,26 @@
       <c r="D130" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="H130" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="I130" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I130" s="4">
+      <c r="J130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5577,19 +5972,22 @@
       <c r="D131" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="H131" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="I131" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I131" s="4">
+      <c r="J131" s="4">
         <v>130</v>
       </c>
     </row>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -779,9 +779,6 @@
     <t>"ty_icon_flq3",</t>
   </si>
   <si>
-    <t>ty_icon_flq2,</t>
-  </si>
-  <si>
     <t>"x100",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1276,6 +1273,10 @@
   </si>
   <si>
     <t>bet_limit|档次限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1785,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1816,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1848,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1889,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1912,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1921,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -1944,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1953,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
@@ -1976,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1985,7 +1986,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
@@ -2008,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -2017,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -2072,7 +2073,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>7</v>
@@ -2081,7 +2082,7 @@
         <v>151</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J9" s="4">
         <v>8</v>
@@ -2104,7 +2105,7 @@
         <v>10000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
@@ -2113,7 +2114,7 @@
         <v>151</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J10" s="4">
         <v>9</v>
@@ -2136,7 +2137,7 @@
         <v>10000</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
@@ -2145,7 +2146,7 @@
         <v>151</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" s="4">
         <v>10</v>
@@ -2168,7 +2169,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
@@ -2177,7 +2178,7 @@
         <v>151</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -2200,7 +2201,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
@@ -2209,7 +2210,7 @@
         <v>151</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J13" s="4">
         <v>12</v>
@@ -2232,7 +2233,7 @@
         <v>10000</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
@@ -2241,7 +2242,7 @@
         <v>151</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J14" s="4">
         <v>13</v>
@@ -2264,7 +2265,7 @@
         <v>10000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -2273,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J15" s="4">
         <v>14</v>
@@ -2296,7 +2297,7 @@
         <v>10000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>7</v>
@@ -2305,7 +2306,7 @@
         <v>151</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J16" s="4">
         <v>15</v>
@@ -2328,7 +2329,7 @@
         <v>10000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>7</v>
@@ -2337,7 +2338,7 @@
         <v>151</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2392,7 +2393,7 @@
         <v>30000</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -2401,7 +2402,7 @@
         <v>208</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J19" s="4">
         <v>18</v>
@@ -2424,7 +2425,7 @@
         <v>30000</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -2433,7 +2434,7 @@
         <v>208</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -2456,7 +2457,7 @@
         <v>30000</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -2465,7 +2466,7 @@
         <v>208</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J21" s="4">
         <v>20</v>
@@ -2488,7 +2489,7 @@
         <v>30000</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2497,7 +2498,7 @@
         <v>208</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J22" s="4">
         <v>21</v>
@@ -2520,7 +2521,7 @@
         <v>30000</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2529,7 +2530,7 @@
         <v>208</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J23" s="4">
         <v>22</v>
@@ -2552,7 +2553,7 @@
         <v>30000</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2561,7 +2562,7 @@
         <v>208</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J24" s="4">
         <v>23</v>
@@ -2584,7 +2585,7 @@
         <v>30000</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>7</v>
@@ -2593,7 +2594,7 @@
         <v>208</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J25" s="4">
         <v>24</v>
@@ -2616,7 +2617,7 @@
         <v>30000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
@@ -2625,7 +2626,7 @@
         <v>208</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J26" s="4">
         <v>25</v>
@@ -2648,7 +2649,7 @@
         <v>30000</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>7</v>
@@ -2657,7 +2658,7 @@
         <v>208</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J27" s="4">
         <v>26</v>
@@ -2776,7 +2777,7 @@
         <v>60000</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>7</v>
@@ -2785,7 +2786,7 @@
         <v>211</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
@@ -2808,7 +2809,7 @@
         <v>60000</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>7</v>
@@ -2817,7 +2818,7 @@
         <v>211</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J32" s="4">
         <v>31</v>
@@ -2840,7 +2841,7 @@
         <v>60000</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>7</v>
@@ -2849,7 +2850,7 @@
         <v>211</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J33" s="4">
         <v>32</v>
@@ -2872,7 +2873,7 @@
         <v>60000</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>7</v>
@@ -2881,7 +2882,7 @@
         <v>211</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J34" s="4">
         <v>33</v>
@@ -2904,7 +2905,7 @@
         <v>60000</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>7</v>
@@ -2913,7 +2914,7 @@
         <v>211</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J35" s="4">
         <v>34</v>
@@ -2936,7 +2937,7 @@
         <v>60000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>7</v>
@@ -2945,7 +2946,7 @@
         <v>211</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J36" s="4">
         <v>35</v>
@@ -2968,7 +2969,7 @@
         <v>60000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>7</v>
@@ -2977,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" s="4">
         <v>36</v>
@@ -3000,7 +3001,7 @@
         <v>60000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>7</v>
@@ -3009,7 +3010,7 @@
         <v>211</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J38" s="4">
         <v>37</v>
@@ -3032,7 +3033,7 @@
         <v>60000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>7</v>
@@ -3041,7 +3042,7 @@
         <v>211</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J39" s="4">
         <v>38</v>
@@ -3134,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>164</v>
@@ -3160,16 +3161,16 @@
         <v>120000</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J43" s="4">
         <v>42</v>
@@ -3192,16 +3193,16 @@
         <v>120000</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J44" s="4">
         <v>43</v>
@@ -3224,16 +3225,16 @@
         <v>120000</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J45" s="4">
         <v>44</v>
@@ -3256,16 +3257,16 @@
         <v>120000</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J46" s="4">
         <v>45</v>
@@ -3288,16 +3289,16 @@
         <v>120000</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J47" s="4">
         <v>46</v>
@@ -3320,16 +3321,16 @@
         <v>120000</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J48" s="4">
         <v>47</v>
@@ -3352,16 +3353,16 @@
         <v>120000</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J49" s="4">
         <v>48</v>
@@ -3384,16 +3385,16 @@
         <v>120000</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J50" s="4">
         <v>49</v>
@@ -3416,16 +3417,16 @@
         <v>120000</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J51" s="4">
         <v>50</v>
@@ -3544,7 +3545,7 @@
         <v>240000</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>9</v>
@@ -3553,7 +3554,7 @@
         <v>216</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J55" s="4">
         <v>54</v>
@@ -3576,7 +3577,7 @@
         <v>240000</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>9</v>
@@ -3585,7 +3586,7 @@
         <v>216</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J56" s="4">
         <v>55</v>
@@ -3608,7 +3609,7 @@
         <v>240000</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>9</v>
@@ -3617,7 +3618,7 @@
         <v>216</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J57" s="4">
         <v>56</v>
@@ -3640,7 +3641,7 @@
         <v>240000</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>9</v>
@@ -3649,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J58" s="4">
         <v>57</v>
@@ -3672,7 +3673,7 @@
         <v>240000</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>9</v>
@@ -3681,7 +3682,7 @@
         <v>216</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J59" s="4">
         <v>58</v>
@@ -3704,7 +3705,7 @@
         <v>240000</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>9</v>
@@ -3713,7 +3714,7 @@
         <v>216</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J60" s="4">
         <v>59</v>
@@ -3736,7 +3737,7 @@
         <v>240000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>9</v>
@@ -3745,7 +3746,7 @@
         <v>216</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J61" s="4">
         <v>60</v>
@@ -3768,7 +3769,7 @@
         <v>240000</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>9</v>
@@ -3777,7 +3778,7 @@
         <v>216</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J62" s="4">
         <v>61</v>
@@ -3800,7 +3801,7 @@
         <v>240000</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>9</v>
@@ -3809,7 +3810,7 @@
         <v>216</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J63" s="4">
         <v>62</v>
@@ -3832,10 +3833,10 @@
         <v>240000</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>217</v>
@@ -3864,10 +3865,10 @@
         <v>240000</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>218</v>
@@ -3899,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>217</v>
@@ -3934,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>126</v>
@@ -3960,16 +3961,16 @@
         <v>480000</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J68" s="4">
         <v>67</v>
@@ -3992,16 +3993,16 @@
         <v>480000</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J69" s="4">
         <v>68</v>
@@ -4024,16 +4025,16 @@
         <v>480000</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J70" s="4">
         <v>69</v>
@@ -4056,16 +4057,16 @@
         <v>480000</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J71" s="4">
         <v>70</v>
@@ -4088,16 +4089,16 @@
         <v>480000</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J72" s="4">
         <v>71</v>
@@ -4120,16 +4121,16 @@
         <v>480000</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J73" s="4">
         <v>72</v>
@@ -4152,16 +4153,16 @@
         <v>480000</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J74" s="4">
         <v>73</v>
@@ -4184,16 +4185,16 @@
         <v>480000</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J75" s="4">
         <v>74</v>
@@ -4216,16 +4217,16 @@
         <v>480000</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J76" s="4">
         <v>75</v>
@@ -4248,13 +4249,13 @@
         <v>480000</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>122</v>
@@ -4280,13 +4281,13 @@
         <v>480000</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>122</v>
@@ -4315,10 +4316,10 @@
         <v>6</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I79" s="27" t="s">
         <v>125</v>
@@ -4350,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>175</v>
@@ -4376,16 +4377,16 @@
         <v>960000</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J81" s="4">
         <v>80</v>
@@ -4408,16 +4409,16 @@
         <v>960000</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J82" s="4">
         <v>81</v>
@@ -4440,16 +4441,16 @@
         <v>960000</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J83" s="4">
         <v>82</v>
@@ -4472,16 +4473,16 @@
         <v>960000</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J84" s="4">
         <v>83</v>
@@ -4504,16 +4505,16 @@
         <v>960000</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J85" s="4">
         <v>84</v>
@@ -4536,16 +4537,16 @@
         <v>960000</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J86" s="4">
         <v>85</v>
@@ -4568,16 +4569,16 @@
         <v>960000</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J87" s="4">
         <v>86</v>
@@ -4600,16 +4601,16 @@
         <v>960000</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J88" s="4">
         <v>87</v>
@@ -4632,16 +4633,16 @@
         <v>960000</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J89" s="4">
         <v>88</v>
@@ -4664,13 +4665,13 @@
         <v>960000</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>122</v>
@@ -4696,13 +4697,13 @@
         <v>960000</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>122</v>
@@ -4731,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>14</v>
@@ -4766,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>117</v>
@@ -4792,16 +4793,16 @@
         <v>1920000</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J94" s="4">
         <v>93</v>
@@ -4824,16 +4825,16 @@
         <v>1920000</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J95" s="4">
         <v>94</v>
@@ -4856,16 +4857,16 @@
         <v>1920000</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J96" s="4">
         <v>95</v>
@@ -4888,16 +4889,16 @@
         <v>1920000</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J97" s="4">
         <v>96</v>
@@ -4920,16 +4921,16 @@
         <v>1920000</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J98" s="4">
         <v>97</v>
@@ -4952,16 +4953,16 @@
         <v>1920000</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J99" s="4">
         <v>98</v>
@@ -4984,16 +4985,16 @@
         <v>1920000</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J100" s="4">
         <v>99</v>
@@ -5016,16 +5017,16 @@
         <v>1920000</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J101" s="4">
         <v>100</v>
@@ -5048,16 +5049,16 @@
         <v>1920000</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J102" s="4">
         <v>101</v>
@@ -5074,19 +5075,19 @@
         <v>68</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E103" s="11">
         <v>1920000</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>118</v>
@@ -5106,19 +5107,19 @@
         <v>41</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E104" s="11">
         <v>1920000</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>118</v>
@@ -5144,13 +5145,13 @@
         <v>1920000</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I105" s="15" t="s">
         <v>14</v>
@@ -5179,10 +5180,10 @@
         <v>185</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>186</v>
@@ -5208,16 +5209,16 @@
         <v>5120000</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J107" s="4">
         <v>106</v>
@@ -5240,16 +5241,16 @@
         <v>5120000</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J108" s="4">
         <v>107</v>
@@ -5272,16 +5273,16 @@
         <v>5120000</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J109" s="4">
         <v>108</v>
@@ -5304,16 +5305,16 @@
         <v>5120000</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J110" s="4">
         <v>109</v>
@@ -5336,16 +5337,16 @@
         <v>5120000</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J111" s="4">
         <v>110</v>
@@ -5368,16 +5369,16 @@
         <v>5120000</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J112" s="4">
         <v>111</v>
@@ -5400,16 +5401,16 @@
         <v>5120000</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J113" s="4">
         <v>112</v>
@@ -5432,16 +5433,16 @@
         <v>5120000</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J114" s="4">
         <v>113</v>
@@ -5464,16 +5465,16 @@
         <v>5120000</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J115" s="4">
         <v>114</v>
@@ -5490,16 +5491,16 @@
         <v>41</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E116" s="11">
         <v>5120000</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>211</v>
@@ -5522,16 +5523,16 @@
         <v>44</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E117" s="11">
         <v>5120000</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>211</v>
@@ -5563,10 +5564,10 @@
         <v>6</v>
       </c>
       <c r="G118" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H118" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="I118" s="15" t="s">
         <v>14</v>
@@ -5598,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>197</v>
@@ -5624,16 +5625,16 @@
         <v>10240000</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J120" s="4">
         <v>119</v>
@@ -5656,16 +5657,16 @@
         <v>10240000</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J121" s="4">
         <v>120</v>
@@ -5688,16 +5689,16 @@
         <v>10240000</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J122" s="4">
         <v>121</v>
@@ -5720,16 +5721,16 @@
         <v>10240000</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J123" s="4">
         <v>122</v>
@@ -5752,16 +5753,16 @@
         <v>10240000</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J124" s="4">
         <v>123</v>
@@ -5784,16 +5785,16 @@
         <v>10240000</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J125" s="4">
         <v>124</v>
@@ -5816,16 +5817,16 @@
         <v>10240000</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J126" s="4">
         <v>125</v>
@@ -5848,16 +5849,16 @@
         <v>10240000</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J127" s="4">
         <v>126</v>
@@ -5880,16 +5881,16 @@
         <v>10240000</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J128" s="4">
         <v>127</v>
@@ -5906,7 +5907,7 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" s="11">
         <v>10240000</v>
@@ -5918,7 +5919,7 @@
         <v>219</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>119</v>
@@ -5938,7 +5939,7 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E130" s="11">
         <v>10240000</v>
@@ -5950,7 +5951,7 @@
         <v>219</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>119</v>
@@ -5976,13 +5977,13 @@
         <v>10240000</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>219</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>14</v>
@@ -6022,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="383">
   <si>
     <t>line|行号</t>
   </si>
@@ -772,10 +772,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"x50",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq3",</t>
   </si>
   <si>
@@ -795,488 +791,520 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"x600",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x800",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x6000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（512万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（512万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（1024万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（1024万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（192万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（192万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x18000",</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，15个7，15个BAR</t>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,15,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个西瓜，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,50,</t>
+  </si>
+  <si>
+    <t>100,50,50,</t>
+  </si>
+  <si>
+    <t>120,120,60,</t>
+  </si>
+  <si>
+    <t>120,60,60,</t>
+  </si>
+  <si>
+    <t>150,150,80,</t>
+  </si>
+  <si>
+    <t>150,80,80,</t>
+  </si>
+  <si>
+    <t>200,200,100,</t>
+  </si>
+  <si>
+    <t>200,100,100,</t>
+  </si>
+  <si>
+    <t>300,300,150,</t>
+  </si>
+  <si>
+    <t>300,150,150,</t>
+  </si>
+  <si>
+    <t>400,400,200,</t>
+  </si>
+  <si>
+    <t>400,200,200,</t>
+  </si>
+  <si>
+    <t>500,500,250,</t>
+  </si>
+  <si>
+    <t>500,250,250,</t>
+  </si>
+  <si>
+    <t>600,600,300,</t>
+  </si>
+  <si>
+    <t>600,300,300,</t>
+  </si>
+  <si>
+    <t>800,800,400,</t>
+  </si>
+  <si>
+    <t>800,400,400,</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个西瓜，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个西瓜，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个西瓜，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个西瓜，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个西瓜，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个西瓜，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个西瓜，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个西瓜，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个西瓜，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上西瓜</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上西瓜</t>
+  </si>
+  <si>
+    <t>bet_limit|档次限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x8000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1800",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1800",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"x500",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"x600",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x800",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x6000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（512万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（512万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（1024万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（1024万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（192万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（192万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x18000",</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，15个7，15个BAR</t>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,15,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个铃铛，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个西瓜，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,40,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,40,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,50,</t>
-  </si>
-  <si>
-    <t>100,50,50,</t>
-  </si>
-  <si>
-    <t>120,120,60,</t>
-  </si>
-  <si>
-    <t>120,60,60,</t>
-  </si>
-  <si>
-    <t>150,150,80,</t>
-  </si>
-  <si>
-    <t>150,80,80,</t>
-  </si>
-  <si>
-    <t>200,200,100,</t>
-  </si>
-  <si>
-    <t>200,100,100,</t>
-  </si>
-  <si>
-    <t>300,300,150,</t>
-  </si>
-  <si>
-    <t>300,150,150,</t>
-  </si>
-  <si>
-    <t>400,400,200,</t>
-  </si>
-  <si>
-    <t>400,200,200,</t>
-  </si>
-  <si>
-    <t>500,500,250,</t>
-  </si>
-  <si>
-    <t>500,250,250,</t>
-  </si>
-  <si>
-    <t>600,600,300,</t>
-  </si>
-  <si>
-    <t>600,300,300,</t>
-  </si>
-  <si>
-    <t>800,800,400,</t>
-  </si>
-  <si>
-    <t>800,400,400,</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个铃铛，400个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个西瓜，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个西瓜，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个西瓜，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个西瓜，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个西瓜，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个西瓜，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个西瓜，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个西瓜，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个西瓜，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>出现一次幸运时刻</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上西瓜</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上7</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上BAR</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上西瓜</t>
-  </si>
-  <si>
-    <t>bet_limit|档次限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
+    <t>"x200",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1786,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1817,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1849,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1881,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1890,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1913,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1922,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -1945,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1954,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
@@ -1977,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1986,7 +2014,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
@@ -2009,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -2018,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -2073,7 +2101,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>7</v>
@@ -2082,7 +2110,7 @@
         <v>151</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J9" s="4">
         <v>8</v>
@@ -2105,7 +2133,7 @@
         <v>10000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
@@ -2114,7 +2142,7 @@
         <v>151</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J10" s="4">
         <v>9</v>
@@ -2137,7 +2165,7 @@
         <v>10000</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
@@ -2146,7 +2174,7 @@
         <v>151</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J11" s="4">
         <v>10</v>
@@ -2169,7 +2197,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
@@ -2178,7 +2206,7 @@
         <v>151</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -2201,7 +2229,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
@@ -2210,7 +2238,7 @@
         <v>151</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J13" s="4">
         <v>12</v>
@@ -2233,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
@@ -2242,7 +2270,7 @@
         <v>151</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J14" s="4">
         <v>13</v>
@@ -2265,7 +2293,7 @@
         <v>10000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -2274,7 +2302,7 @@
         <v>151</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J15" s="4">
         <v>14</v>
@@ -2297,7 +2325,7 @@
         <v>10000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>7</v>
@@ -2306,7 +2334,7 @@
         <v>151</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J16" s="4">
         <v>15</v>
@@ -2329,7 +2357,7 @@
         <v>10000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>7</v>
@@ -2338,7 +2366,7 @@
         <v>151</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2393,7 +2421,7 @@
         <v>30000</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -2402,7 +2430,7 @@
         <v>208</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J19" s="4">
         <v>18</v>
@@ -2425,7 +2453,7 @@
         <v>30000</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -2434,7 +2462,7 @@
         <v>208</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -2457,7 +2485,7 @@
         <v>30000</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -2466,7 +2494,7 @@
         <v>208</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J21" s="4">
         <v>20</v>
@@ -2489,7 +2517,7 @@
         <v>30000</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2498,7 +2526,7 @@
         <v>208</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J22" s="4">
         <v>21</v>
@@ -2521,7 +2549,7 @@
         <v>30000</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2530,7 +2558,7 @@
         <v>208</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J23" s="4">
         <v>22</v>
@@ -2553,7 +2581,7 @@
         <v>30000</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2562,7 +2590,7 @@
         <v>208</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J24" s="4">
         <v>23</v>
@@ -2585,7 +2613,7 @@
         <v>30000</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>7</v>
@@ -2594,7 +2622,7 @@
         <v>208</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J25" s="4">
         <v>24</v>
@@ -2617,7 +2645,7 @@
         <v>30000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
@@ -2626,7 +2654,7 @@
         <v>208</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J26" s="4">
         <v>25</v>
@@ -2649,7 +2677,7 @@
         <v>30000</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>7</v>
@@ -2658,7 +2686,7 @@
         <v>208</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J27" s="4">
         <v>26</v>
@@ -2777,7 +2805,7 @@
         <v>60000</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>7</v>
@@ -2786,7 +2814,7 @@
         <v>211</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
@@ -2809,7 +2837,7 @@
         <v>60000</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>7</v>
@@ -2818,7 +2846,7 @@
         <v>211</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J32" s="4">
         <v>31</v>
@@ -2841,7 +2869,7 @@
         <v>60000</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>7</v>
@@ -2850,7 +2878,7 @@
         <v>211</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J33" s="4">
         <v>32</v>
@@ -2873,7 +2901,7 @@
         <v>60000</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>7</v>
@@ -2882,7 +2910,7 @@
         <v>211</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J34" s="4">
         <v>33</v>
@@ -2905,7 +2933,7 @@
         <v>60000</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>7</v>
@@ -2914,7 +2942,7 @@
         <v>211</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J35" s="4">
         <v>34</v>
@@ -2937,7 +2965,7 @@
         <v>60000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>7</v>
@@ -2946,7 +2974,7 @@
         <v>211</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J36" s="4">
         <v>35</v>
@@ -2969,7 +2997,7 @@
         <v>60000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>7</v>
@@ -2978,7 +3006,7 @@
         <v>211</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J37" s="4">
         <v>36</v>
@@ -3001,7 +3029,7 @@
         <v>60000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>7</v>
@@ -3010,7 +3038,7 @@
         <v>211</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J38" s="4">
         <v>37</v>
@@ -3033,7 +3061,7 @@
         <v>60000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>7</v>
@@ -3042,7 +3070,7 @@
         <v>211</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J39" s="4">
         <v>38</v>
@@ -3135,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>164</v>
@@ -3161,16 +3189,16 @@
         <v>120000</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J43" s="4">
         <v>42</v>
@@ -3193,16 +3221,16 @@
         <v>120000</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J44" s="4">
         <v>43</v>
@@ -3225,16 +3253,16 @@
         <v>120000</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J45" s="4">
         <v>44</v>
@@ -3257,16 +3285,16 @@
         <v>120000</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J46" s="4">
         <v>45</v>
@@ -3289,16 +3317,16 @@
         <v>120000</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J47" s="4">
         <v>46</v>
@@ -3321,16 +3349,16 @@
         <v>120000</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J48" s="4">
         <v>47</v>
@@ -3353,16 +3381,16 @@
         <v>120000</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J49" s="4">
         <v>48</v>
@@ -3385,16 +3413,16 @@
         <v>120000</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J50" s="4">
         <v>49</v>
@@ -3417,16 +3445,16 @@
         <v>120000</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J51" s="4">
         <v>50</v>
@@ -3545,7 +3573,7 @@
         <v>240000</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>9</v>
@@ -3554,7 +3582,7 @@
         <v>216</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J55" s="4">
         <v>54</v>
@@ -3577,7 +3605,7 @@
         <v>240000</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>9</v>
@@ -3586,7 +3614,7 @@
         <v>216</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J56" s="4">
         <v>55</v>
@@ -3609,7 +3637,7 @@
         <v>240000</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>9</v>
@@ -3618,7 +3646,7 @@
         <v>216</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J57" s="4">
         <v>56</v>
@@ -3641,7 +3669,7 @@
         <v>240000</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>9</v>
@@ -3650,7 +3678,7 @@
         <v>216</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J58" s="4">
         <v>57</v>
@@ -3673,7 +3701,7 @@
         <v>240000</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>9</v>
@@ -3682,7 +3710,7 @@
         <v>216</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J59" s="4">
         <v>58</v>
@@ -3705,7 +3733,7 @@
         <v>240000</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>9</v>
@@ -3714,7 +3742,7 @@
         <v>216</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J60" s="4">
         <v>59</v>
@@ -3737,7 +3765,7 @@
         <v>240000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>9</v>
@@ -3746,7 +3774,7 @@
         <v>216</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J61" s="4">
         <v>60</v>
@@ -3769,7 +3797,7 @@
         <v>240000</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>9</v>
@@ -3778,7 +3806,7 @@
         <v>216</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J62" s="4">
         <v>61</v>
@@ -3801,7 +3829,7 @@
         <v>240000</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>9</v>
@@ -3810,7 +3838,7 @@
         <v>216</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J63" s="4">
         <v>62</v>
@@ -3833,13 +3861,13 @@
         <v>240000</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>122</v>
@@ -3865,13 +3893,13 @@
         <v>240000</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>122</v>
@@ -3935,7 +3963,7 @@
         <v>9</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>126</v>
@@ -3961,16 +3989,16 @@
         <v>480000</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J68" s="4">
         <v>67</v>
@@ -3993,16 +4021,16 @@
         <v>480000</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J69" s="4">
         <v>68</v>
@@ -4025,16 +4053,16 @@
         <v>480000</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J70" s="4">
         <v>69</v>
@@ -4057,16 +4085,16 @@
         <v>480000</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J71" s="4">
         <v>70</v>
@@ -4089,16 +4117,16 @@
         <v>480000</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J72" s="4">
         <v>71</v>
@@ -4121,16 +4149,16 @@
         <v>480000</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J73" s="4">
         <v>72</v>
@@ -4153,16 +4181,16 @@
         <v>480000</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J74" s="4">
         <v>73</v>
@@ -4185,16 +4213,16 @@
         <v>480000</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J75" s="4">
         <v>74</v>
@@ -4217,16 +4245,16 @@
         <v>480000</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J76" s="4">
         <v>75</v>
@@ -4249,13 +4277,13 @@
         <v>480000</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>221</v>
+        <v>381</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>122</v>
@@ -4281,13 +4309,13 @@
         <v>480000</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>122</v>
@@ -4319,7 +4347,7 @@
         <v>10</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I79" s="27" t="s">
         <v>125</v>
@@ -4351,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>175</v>
@@ -4377,16 +4405,16 @@
         <v>960000</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J81" s="4">
         <v>80</v>
@@ -4409,16 +4437,16 @@
         <v>960000</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J82" s="4">
         <v>81</v>
@@ -4441,16 +4469,16 @@
         <v>960000</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J83" s="4">
         <v>82</v>
@@ -4473,16 +4501,16 @@
         <v>960000</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J84" s="4">
         <v>83</v>
@@ -4505,16 +4533,16 @@
         <v>960000</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J85" s="4">
         <v>84</v>
@@ -4537,16 +4565,16 @@
         <v>960000</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J86" s="4">
         <v>85</v>
@@ -4569,16 +4597,16 @@
         <v>960000</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J87" s="4">
         <v>86</v>
@@ -4601,16 +4629,16 @@
         <v>960000</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J88" s="4">
         <v>87</v>
@@ -4633,16 +4661,16 @@
         <v>960000</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J89" s="4">
         <v>88</v>
@@ -4665,13 +4693,13 @@
         <v>960000</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>223</v>
+        <v>378</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>122</v>
@@ -4697,13 +4725,13 @@
         <v>960000</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>223</v>
+        <v>379</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>122</v>
@@ -4735,7 +4763,7 @@
         <v>10</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>14</v>
@@ -4767,7 +4795,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>117</v>
@@ -4793,16 +4821,16 @@
         <v>1920000</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J94" s="4">
         <v>93</v>
@@ -4825,16 +4853,16 @@
         <v>1920000</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J95" s="4">
         <v>94</v>
@@ -4857,16 +4885,16 @@
         <v>1920000</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J96" s="4">
         <v>95</v>
@@ -4889,16 +4917,16 @@
         <v>1920000</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J97" s="4">
         <v>96</v>
@@ -4921,16 +4949,16 @@
         <v>1920000</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J98" s="4">
         <v>97</v>
@@ -4953,16 +4981,16 @@
         <v>1920000</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J99" s="4">
         <v>98</v>
@@ -4985,16 +5013,16 @@
         <v>1920000</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J100" s="4">
         <v>99</v>
@@ -5017,16 +5045,16 @@
         <v>1920000</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J101" s="4">
         <v>100</v>
@@ -5049,16 +5077,16 @@
         <v>1920000</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J102" s="4">
         <v>101</v>
@@ -5075,19 +5103,19 @@
         <v>68</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E103" s="11">
         <v>1920000</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>118</v>
@@ -5107,19 +5135,19 @@
         <v>41</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E104" s="11">
         <v>1920000</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>118</v>
@@ -5145,13 +5173,13 @@
         <v>1920000</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I105" s="15" t="s">
         <v>14</v>
@@ -5180,10 +5208,10 @@
         <v>185</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>186</v>
@@ -5209,16 +5237,16 @@
         <v>5120000</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J107" s="4">
         <v>106</v>
@@ -5241,16 +5269,16 @@
         <v>5120000</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J108" s="4">
         <v>107</v>
@@ -5273,16 +5301,16 @@
         <v>5120000</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J109" s="4">
         <v>108</v>
@@ -5305,16 +5333,16 @@
         <v>5120000</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J110" s="4">
         <v>109</v>
@@ -5337,16 +5365,16 @@
         <v>5120000</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J111" s="4">
         <v>110</v>
@@ -5369,16 +5397,16 @@
         <v>5120000</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J112" s="4">
         <v>111</v>
@@ -5401,16 +5429,16 @@
         <v>5120000</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J113" s="4">
         <v>112</v>
@@ -5433,16 +5461,16 @@
         <v>5120000</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J114" s="4">
         <v>113</v>
@@ -5465,16 +5493,16 @@
         <v>5120000</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J115" s="4">
         <v>114</v>
@@ -5491,19 +5519,19 @@
         <v>41</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E116" s="11">
         <v>5120000</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>118</v>
@@ -5523,19 +5551,19 @@
         <v>44</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E117" s="11">
         <v>5120000</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>118</v>
@@ -5564,10 +5592,10 @@
         <v>6</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="I118" s="15" t="s">
         <v>14</v>
@@ -5599,7 +5627,7 @@
         <v>10</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>197</v>
@@ -5625,16 +5653,16 @@
         <v>10240000</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J120" s="4">
         <v>119</v>
@@ -5657,16 +5685,16 @@
         <v>10240000</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J121" s="4">
         <v>120</v>
@@ -5689,16 +5717,16 @@
         <v>10240000</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J122" s="4">
         <v>121</v>
@@ -5721,16 +5749,16 @@
         <v>10240000</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J123" s="4">
         <v>122</v>
@@ -5753,16 +5781,16 @@
         <v>10240000</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J124" s="4">
         <v>123</v>
@@ -5785,16 +5813,16 @@
         <v>10240000</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J125" s="4">
         <v>124</v>
@@ -5817,16 +5845,16 @@
         <v>10240000</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J126" s="4">
         <v>125</v>
@@ -5849,16 +5877,16 @@
         <v>10240000</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J127" s="4">
         <v>126</v>
@@ -5881,16 +5909,16 @@
         <v>10240000</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J128" s="4">
         <v>127</v>
@@ -5907,7 +5935,7 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E129" s="11">
         <v>10240000</v>
@@ -5916,10 +5944,10 @@
         <v>81</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>231</v>
+        <v>372</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>119</v>
@@ -5939,7 +5967,7 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E130" s="11">
         <v>10240000</v>
@@ -5948,10 +5976,10 @@
         <v>83</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>119</v>
@@ -5977,13 +6005,13 @@
         <v>10240000</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>14</v>
@@ -6023,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>

--- a/config_debug/sgxxl_tower_climbing_config.xlsx
+++ b/config_debug/sgxxl_tower_climbing_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="384">
   <si>
     <t>line|行号</t>
   </si>
@@ -787,524 +787,528 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"x600",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x6000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（512万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（512万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（1024万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（1024万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（192万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除（192万及以上档次）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x18000",</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个7</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，15个7，15个BAR</t>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,15,15,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个铃铛，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个苹果，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>累计消除80个铃铛，80个西瓜，40个7</t>
+  </si>
+  <si>
+    <t>累计消除80个西瓜，40个7，40个BAR</t>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,80,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40,40,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,50,</t>
+  </si>
+  <si>
+    <t>100,50,50,</t>
+  </si>
+  <si>
+    <t>120,120,60,</t>
+  </si>
+  <si>
+    <t>120,60,60,</t>
+  </si>
+  <si>
+    <t>150,150,80,</t>
+  </si>
+  <si>
+    <t>150,80,80,</t>
+  </si>
+  <si>
+    <t>200,200,100,</t>
+  </si>
+  <si>
+    <t>200,100,100,</t>
+  </si>
+  <si>
+    <t>300,300,150,</t>
+  </si>
+  <si>
+    <t>300,150,150,</t>
+  </si>
+  <si>
+    <t>400,400,200,</t>
+  </si>
+  <si>
+    <t>400,200,200,</t>
+  </si>
+  <si>
+    <t>500,500,250,</t>
+  </si>
+  <si>
+    <t>500,250,250,</t>
+  </si>
+  <si>
+    <t>600,600,300,</t>
+  </si>
+  <si>
+    <t>600,300,300,</t>
+  </si>
+  <si>
+    <t>800,800,400,</t>
+  </si>
+  <si>
+    <t>800,400,400,</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个苹果，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个7</t>
+  </si>
+  <si>
+    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除100个西瓜，50个7，50个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个苹果，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个7</t>
+  </si>
+  <si>
+    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除120个西瓜，60个7，60个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个苹果，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个7</t>
+  </si>
+  <si>
+    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除150个西瓜，80个7，80个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个苹果，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个7</t>
+  </si>
+  <si>
+    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除200个西瓜，100个7，100个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个苹果，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个7</t>
+  </si>
+  <si>
+    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除300个西瓜，150个7，150个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个苹果，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个7</t>
+  </si>
+  <si>
+    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除400个西瓜，200个7，200个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个苹果，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个7</t>
+  </si>
+  <si>
+    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除500个西瓜，250个7，250个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个苹果，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个7</t>
+  </si>
+  <si>
+    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除600个西瓜，300个7，300个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个苹果，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个7</t>
+  </si>
+  <si>
+    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
+  </si>
+  <si>
+    <t>累计消除800个西瓜，400个7，400个BAR</t>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上西瓜</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上铃铛</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上西瓜</t>
+  </si>
+  <si>
+    <t>bet_limit|档次限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1800",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1800",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"x500",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"x200",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"x600",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"x800",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x6000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（512万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（512万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（1024万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（1024万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（192万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除（192万及以上档次）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x18000",</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，15个7，15个BAR</t>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,30,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,15,15,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个铃铛，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个西瓜，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,40,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,80,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,40,40,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,50,</t>
-  </si>
-  <si>
-    <t>100,50,50,</t>
-  </si>
-  <si>
-    <t>120,120,60,</t>
-  </si>
-  <si>
-    <t>120,60,60,</t>
-  </si>
-  <si>
-    <t>150,150,80,</t>
-  </si>
-  <si>
-    <t>150,80,80,</t>
-  </si>
-  <si>
-    <t>200,200,100,</t>
-  </si>
-  <si>
-    <t>200,100,100,</t>
-  </si>
-  <si>
-    <t>300,300,150,</t>
-  </si>
-  <si>
-    <t>300,150,150,</t>
-  </si>
-  <si>
-    <t>400,400,200,</t>
-  </si>
-  <si>
-    <t>400,200,200,</t>
-  </si>
-  <si>
-    <t>500,500,250,</t>
-  </si>
-  <si>
-    <t>500,250,250,</t>
-  </si>
-  <si>
-    <t>600,600,300,</t>
-  </si>
-  <si>
-    <t>600,300,300,</t>
-  </si>
-  <si>
-    <t>800,800,400,</t>
-  </si>
-  <si>
-    <t>800,400,400,</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个铃铛，400个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个西瓜，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个西瓜，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个西瓜，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个西瓜，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个西瓜，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个西瓜，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个西瓜，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个西瓜，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个西瓜，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>出现一次幸运时刻</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上西瓜</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上7</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上BAR</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上西瓜</t>
-  </si>
-  <si>
-    <t>bet_limit|档次限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x8000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1800",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1800",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x500",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x200",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x200",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x80",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x80",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20",</t>
+    <t>"x300",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1814,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1845,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1877,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1909,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1918,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1941,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1950,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -1973,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1982,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
@@ -2005,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -2014,7 +2018,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
@@ -2037,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -2046,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -2101,7 +2105,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>7</v>
@@ -2110,7 +2114,7 @@
         <v>151</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J9" s="4">
         <v>8</v>
@@ -2133,7 +2137,7 @@
         <v>10000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
@@ -2142,7 +2146,7 @@
         <v>151</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J10" s="4">
         <v>9</v>
@@ -2165,7 +2169,7 @@
         <v>10000</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
@@ -2174,7 +2178,7 @@
         <v>151</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J11" s="4">
         <v>10</v>
@@ -2197,7 +2201,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
@@ -2206,7 +2210,7 @@
         <v>151</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -2229,7 +2233,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
@@ -2238,7 +2242,7 @@
         <v>151</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J13" s="4">
         <v>12</v>
@@ -2261,7 +2265,7 @@
         <v>10000</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
@@ -2270,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J14" s="4">
         <v>13</v>
@@ -2293,7 +2297,7 @@
         <v>10000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
@@ -2302,7 +2306,7 @@
         <v>151</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J15" s="4">
         <v>14</v>
@@ -2325,7 +2329,7 @@
         <v>10000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>7</v>
@@ -2334,7 +2338,7 @@
         <v>151</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J16" s="4">
         <v>15</v>
@@ -2357,7 +2361,7 @@
         <v>10000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>7</v>
@@ -2366,7 +2370,7 @@
         <v>151</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2421,7 +2425,7 @@
         <v>30000</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -2430,7 +2434,7 @@
         <v>208</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J19" s="4">
         <v>18</v>
@@ -2453,7 +2457,7 @@
         <v>30000</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -2462,7 +2466,7 @@
         <v>208</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -2485,7 +2489,7 @@
         <v>30000</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -2494,7 +2498,7 @@
         <v>208</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J21" s="4">
         <v>20</v>
@@ -2517,7 +2521,7 @@
         <v>30000</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2526,7 +2530,7 @@
         <v>208</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J22" s="4">
         <v>21</v>
@@ -2549,7 +2553,7 @@
         <v>30000</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2558,7 +2562,7 @@
         <v>208</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J23" s="4">
         <v>22</v>
@@ -2581,7 +2585,7 @@
         <v>30000</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2590,7 +2594,7 @@
         <v>208</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J24" s="4">
         <v>23</v>
@@ -2613,7 +2617,7 @@
         <v>30000</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>7</v>
@@ -2622,7 +2626,7 @@
         <v>208</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J25" s="4">
         <v>24</v>
@@ -2645,7 +2649,7 @@
         <v>30000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
@@ -2654,7 +2658,7 @@
         <v>208</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J26" s="4">
         <v>25</v>
@@ -2677,7 +2681,7 @@
         <v>30000</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>7</v>
@@ -2686,7 +2690,7 @@
         <v>208</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J27" s="4">
         <v>26</v>
@@ -2805,7 +2809,7 @@
         <v>60000</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>7</v>
@@ -2814,7 +2818,7 @@
         <v>211</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
@@ -2837,7 +2841,7 @@
         <v>60000</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>7</v>
@@ -2846,7 +2850,7 @@
         <v>211</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J32" s="4">
         <v>31</v>
@@ -2869,7 +2873,7 @@
         <v>60000</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>7</v>
@@ -2878,7 +2882,7 @@
         <v>211</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J33" s="4">
         <v>32</v>
@@ -2901,7 +2905,7 @@
         <v>60000</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>7</v>
@@ -2910,7 +2914,7 @@
         <v>211</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J34" s="4">
         <v>33</v>
@@ -2933,7 +2937,7 @@
         <v>60000</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>7</v>
@@ -2942,7 +2946,7 @@
         <v>211</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J35" s="4">
         <v>34</v>
@@ -2965,7 +2969,7 @@
         <v>60000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>7</v>
@@ -2974,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J36" s="4">
         <v>35</v>
@@ -2997,7 +3001,7 @@
         <v>60000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>7</v>
@@ -3006,7 +3010,7 @@
         <v>211</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J37" s="4">
         <v>36</v>
@@ -3029,7 +3033,7 @@
         <v>60000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>7</v>
@@ -3038,7 +3042,7 @@
         <v>211</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J38" s="4">
         <v>37</v>
@@ -3061,7 +3065,7 @@
         <v>60000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>7</v>
@@ -3070,7 +3074,7 @@
         <v>211</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J39" s="4">
         <v>38</v>
@@ -3163,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>164</v>
@@ -3189,16 +3193,16 @@
         <v>120000</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J43" s="4">
         <v>42</v>
@@ -3221,16 +3225,16 @@
         <v>120000</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J44" s="4">
         <v>43</v>
@@ -3253,16 +3257,16 @@
         <v>120000</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J45" s="4">
         <v>44</v>
@@ -3285,16 +3289,16 @@
         <v>120000</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J46" s="4">
         <v>45</v>
@@ -3317,16 +3321,16 @@
         <v>120000</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J47" s="4">
         <v>46</v>
@@ -3349,16 +3353,16 @@
         <v>120000</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J48" s="4">
         <v>47</v>
@@ -3381,16 +3385,16 @@
         <v>120000</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J49" s="4">
         <v>48</v>
@@ -3413,16 +3417,16 @@
         <v>120000</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J50" s="4">
         <v>49</v>
@@ -3445,16 +3449,16 @@
         <v>120000</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J51" s="4">
         <v>50</v>
@@ -3573,7 +3577,7 @@
         <v>240000</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>9</v>
@@ -3582,7 +3586,7 @@
         <v>216</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J55" s="4">
         <v>54</v>
@@ -3605,7 +3609,7 @@
         <v>240000</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>9</v>
@@ -3614,7 +3618,7 @@
         <v>216</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J56" s="4">
         <v>55</v>
@@ -3637,7 +3641,7 @@
         <v>240000</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>9</v>
@@ -3646,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" s="4">
         <v>56</v>
@@ -3669,7 +3673,7 @@
         <v>240000</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>9</v>
@@ -3678,7 +3682,7 @@
         <v>216</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J58" s="4">
         <v>57</v>
@@ -3701,7 +3705,7 @@
         <v>240000</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>9</v>
@@ -3710,7 +3714,7 @@
         <v>216</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J59" s="4">
         <v>58</v>
@@ -3733,7 +3737,7 @@
         <v>240000</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>9</v>
@@ -3742,7 +3746,7 @@
         <v>216</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J60" s="4">
         <v>59</v>
@@ -3765,7 +3769,7 @@
         <v>240000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>9</v>
@@ -3774,7 +3778,7 @@
         <v>216</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J61" s="4">
         <v>60</v>
@@ -3797,7 +3801,7 @@
         <v>240000</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>9</v>
@@ -3806,7 +3810,7 @@
         <v>216</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J62" s="4">
         <v>61</v>
@@ -3829,7 +3833,7 @@
         <v>240000</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>9</v>
@@ -3838,7 +3842,7 @@
         <v>216</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J63" s="4">
         <v>62</v>
@@ -3861,13 +3865,13 @@
         <v>240000</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>122</v>
@@ -3893,13 +3897,13 @@
         <v>240000</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>122</v>
@@ -3989,7 +3993,7 @@
         <v>480000</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
@@ -3998,7 +4002,7 @@
         <v>219</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J68" s="4">
         <v>67</v>
@@ -4021,7 +4025,7 @@
         <v>480000</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
@@ -4030,7 +4034,7 @@
         <v>219</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J69" s="4">
         <v>68</v>
@@ -4053,7 +4057,7 @@
         <v>480000</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
@@ -4062,7 +4066,7 @@
         <v>219</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J70" s="4">
         <v>69</v>
@@ -4085,7 +4089,7 @@
         <v>480000</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
@@ -4094,7 +4098,7 @@
         <v>219</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J71" s="4">
         <v>70</v>
@@ -4117,7 +4121,7 @@
         <v>480000</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
@@ -4126,7 +4130,7 @@
         <v>219</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J72" s="4">
         <v>71</v>
@@ -4149,7 +4153,7 @@
         <v>480000</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
@@ -4158,7 +4162,7 @@
         <v>219</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J73" s="4">
         <v>72</v>
@@ -4181,7 +4185,7 @@
         <v>480000</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
@@ -4190,7 +4194,7 @@
         <v>219</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J74" s="4">
         <v>73</v>
@@ -4213,7 +4217,7 @@
         <v>480000</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>9</v>
@@ -4222,7 +4226,7 @@
         <v>219</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J75" s="4">
         <v>74</v>
@@ -4245,7 +4249,7 @@
         <v>480000</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>9</v>
@@ -4254,7 +4258,7 @@
         <v>219</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J76" s="4">
         <v>75</v>
@@ -4277,13 +4281,13 @@
         <v>480000</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>122</v>
@@ -4309,13 +4313,13 @@
         <v>480000</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>122</v>
@@ -4405,7 +4409,7 @@
         <v>960000</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>9</v>
@@ -4414,7 +4418,7 @@
         <v>221</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J81" s="4">
         <v>80</v>
@@ -4437,7 +4441,7 @@
         <v>960000</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>9</v>
@@ -4446,7 +4450,7 @@
         <v>221</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J82" s="4">
         <v>81</v>
@@ -4469,7 +4473,7 @@
         <v>960000</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>9</v>
@@ -4478,7 +4482,7 @@
         <v>221</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J83" s="4">
         <v>82</v>
@@ -4501,7 +4505,7 @@
         <v>960000</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>9</v>
@@ -4510,7 +4514,7 @@
         <v>221</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J84" s="4">
         <v>83</v>
@@ -4533,7 +4537,7 @@
         <v>960000</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>9</v>
@@ -4542,7 +4546,7 @@
         <v>221</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J85" s="4">
         <v>84</v>
@@ -4565,7 +4569,7 @@
         <v>960000</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>9</v>
@@ -4574,7 +4578,7 @@
         <v>221</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J86" s="4">
         <v>85</v>
@@ -4597,7 +4601,7 @@
         <v>960000</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>9</v>
@@ -4606,7 +4610,7 @@
         <v>221</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J87" s="4">
         <v>86</v>
@@ -4629,7 +4633,7 @@
         <v>960000</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>9</v>
@@ -4638,7 +4642,7 @@
         <v>221</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J88" s="4">
         <v>87</v>
@@ -4661,7 +4665,7 @@
         <v>960000</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>9</v>
@@ -4670,7 +4674,7 @@
         <v>221</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J89" s="4">
         <v>88</v>
@@ -4693,13 +4697,13 @@
         <v>960000</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>122</v>
@@ -4725,13 +4729,13 @@
         <v>960000</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>122</v>
@@ -4763,7 +4767,7 @@
         <v>10</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>14</v>
@@ -4795,7 +4799,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>117</v>
@@ -4821,16 +4825,16 @@
         <v>1920000</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J94" s="4">
         <v>93</v>
@@ -4853,16 +4857,16 @@
         <v>1920000</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J95" s="4">
         <v>94</v>
@@ -4885,16 +4889,16 @@
         <v>1920000</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J96" s="4">
         <v>95</v>
@@ -4917,16 +4921,16 @@
         <v>1920000</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J97" s="4">
         <v>96</v>
@@ -4949,16 +4953,16 @@
         <v>1920000</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J98" s="4">
         <v>97</v>
@@ -4981,16 +4985,16 @@
         <v>1920000</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J99" s="4">
         <v>98</v>
@@ -5013,16 +5017,16 @@
         <v>1920000</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J100" s="4">
         <v>99</v>
@@ -5045,16 +5049,16 @@
         <v>1920000</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J101" s="4">
         <v>100</v>
@@ -5077,16 +5081,16 @@
         <v>1920000</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J102" s="4">
         <v>101</v>
@@ -5103,19 +5107,19 @@
         <v>68</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E103" s="11">
         <v>1920000</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>118</v>
@@ -5135,19 +5139,19 @@
         <v>41</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E104" s="11">
         <v>1920000</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>118</v>
@@ -5173,13 +5177,13 @@
         <v>1920000</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>224</v>
+        <v>382</v>
       </c>
       <c r="I105" s="15" t="s">
         <v>14</v>
@@ -5208,10 +5212,10 @@
         <v>185</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>186</v>
@@ -5237,16 +5241,16 @@
         <v>5120000</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J107" s="4">
         <v>106</v>
@@ -5269,16 +5273,16 @@
         <v>5120000</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J108" s="4">
         <v>107</v>
@@ -5301,16 +5305,16 @@
         <v>5120000</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J109" s="4">
         <v>108</v>
@@ -5333,16 +5337,16 @@
         <v>5120000</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J110" s="4">
         <v>109</v>
@@ -5365,16 +5369,16 @@
         <v>5120000</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J111" s="4">
         <v>110</v>
@@ -5397,16 +5401,16 @@
         <v>5120000</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J112" s="4">
         <v>111</v>
@@ -5429,16 +5433,16 @@
         <v>5120000</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J113" s="4">
         <v>112</v>
@@ -5461,16 +5465,16 @@
         <v>5120000</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J114" s="4">
         <v>113</v>
@@ -5493,16 +5497,16 @@
         <v>5120000</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J115" s="4">
         <v>114</v>
@@ -5519,19 +5523,19 @@
         <v>41</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E116" s="11">
         <v>5120000</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>118</v>
@@ -5551,19 +5555,19 @@
         <v>44</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E117" s="11">
         <v>5120000</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>118</v>
@@ -5592,10 +5596,10 @@
         <v>6</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="I118" s="15" t="s">
         <v>14</v>
@@ -5627,7 +5631,7 @@
         <v>10</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>197</v>
@@ -5653,16 +5657,16 @@
         <v>10240000</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J120" s="4">
         <v>119</v>
@@ -5685,16 +5689,16 @@
         <v>10240000</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J121" s="4">
         <v>120</v>
@@ -5717,16 +5721,16 @@
         <v>10240000</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J122" s="4">
         <v>121</v>
@@ -5749,16 +5753,16 @@
         <v>10240000</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J123" s="4">
         <v>122</v>
@@ -5781,16 +5785,16 @@
         <v>10240000</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J124" s="4">
         <v>123</v>
@@ -5813,16 +5817,16 @@
         <v>10240000</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J125" s="4">
         <v>124</v>
@@ -5845,16 +5849,16 @@
         <v>10240000</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J126" s="4">
         <v>125</v>
@@ -5877,16 +5881,16 @@
         <v>10240000</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J127" s="4">
         <v>126</v>
@@ -5909,16 +5913,16 @@
         <v>10240000</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J128" s="4">
         <v>127</v>
@@ -5935,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E129" s="11">
         <v>10240000</v>
@@ -5947,7 +5951,7 @@
         <v>218</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>119</v>
@@ -5967,7 +5971,7 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E130" s="11">
         <v>10240000</v>
@@ -5979,7 +5983,7 @@
         <v>218</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>119</v>
@@ -6005,13 +6009,13 @@
         <v>10240000</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>14</v>
@@ -6051,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>
